--- a/papers/data-intensive-bio/results/Cloud_Results.xlsx
+++ b/papers/data-intensive-bio/results/Cloud_Results.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="211"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="211"/>
   </bookViews>
   <sheets>
-    <sheet name="Ranger" sheetId="2" r:id="rId1"/>
-    <sheet name="new_data" sheetId="3" r:id="rId2"/>
-    <sheet name="OLd_data" sheetId="1" r:id="rId3"/>
+    <sheet name="clod_res" sheetId="4" r:id="rId1"/>
+    <sheet name="OLd_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8651" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8537" uniqueCount="89">
   <si>
     <t>Type</t>
   </si>
@@ -275,82 +274,19 @@
     <t>Ranger</t>
   </si>
   <si>
-    <t>For Post Process step</t>
-  </si>
-  <si>
-    <t>Human Genome(hg18)</t>
-  </si>
-  <si>
-    <t>Prepare Read files step</t>
-  </si>
-  <si>
-    <t>Whole Genome Results</t>
-  </si>
-  <si>
-    <t>Size of .qual file</t>
-  </si>
-  <si>
-    <t>Size of .csfasta file</t>
-  </si>
-  <si>
-    <t>Number of cores/ pre bfast</t>
-  </si>
-  <si>
-    <t>Number of jobs</t>
-  </si>
-  <si>
-    <t>Using Big job</t>
-  </si>
-  <si>
-    <t>For local alignment step</t>
-  </si>
-  <si>
-    <t>For matching step</t>
-  </si>
-  <si>
-    <t>Number of threads per bfast</t>
-  </si>
-  <si>
-    <t>all jobs are concurrent</t>
-  </si>
-  <si>
-    <t>Time (sec)</t>
-  </si>
-  <si>
-    <t>Time(sec)</t>
-  </si>
-  <si>
     <t>Ranger 16 core , RAM 32GB</t>
   </si>
   <si>
     <t xml:space="preserve">Human </t>
   </si>
   <si>
-    <t>HG 18</t>
+    <t>Varying the number of threads</t>
   </si>
   <si>
-    <t>HG 18 Chromosome 21</t>
+    <t>Size of each Read files(MB)</t>
   </si>
   <si>
-    <t>hg18-chr21</t>
-  </si>
-  <si>
-    <t>hg18</t>
-  </si>
-  <si>
-    <t>b.glumae</t>
-  </si>
-  <si>
-    <t>10 index</t>
-  </si>
-  <si>
-    <t>40 index</t>
-  </si>
-  <si>
-    <t>slope ratio</t>
-  </si>
-  <si>
-    <t>SLOPES</t>
+    <t>VM =C1.Xlarge</t>
   </si>
 </sst>
 </file>
@@ -481,7 +417,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="406">
+  <cellStyleXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -888,8 +824,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -923,8 +907,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="406">
+  <cellStyles count="454">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1126,6 +1113,30 @@
     <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1329,6 +1340,30 @@
     <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1338,1424 +1373,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Match</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> step time vs Read file Size (HG Chr 21)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>HG-CHR21-40i</c:v>
-          </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$3:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$3:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>27398.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13816.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6963.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5032.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>HG-CHR21-10i</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$8:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$8:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6433.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3209.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1615.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1186.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="475215128"/>
-        <c:axId val="475220568"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="475215128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on Read files</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475220568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="475220568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Match</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> step </a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>Time in sec</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475215128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.81183932346723"/>
-          <c:y val="0.133439937881417"/>
-          <c:w val="0.188160691078664"/>
-          <c:h val="0.231170226023905"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Match</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> step time vs Read file Size Bglumae</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.246412659582601"/>
-          <c:y val="0.0316546762589928"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Bglumae10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$21:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.586</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.782</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$21:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>419.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>805.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1152.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1502.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2406.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3389.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Bglumae40</c:v>
-          </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$14:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.586</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.782</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$14:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1596.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2978.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4387.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5774.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7663.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15001.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="388304728"/>
-        <c:axId val="388310328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="388304728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on Read files</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="388310328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="388310328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Match</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> step </a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>Time in sec</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="388304728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.81183932346723"/>
-          <c:y val="0.133439937881417"/>
-          <c:w val="0.17534118186683"/>
-          <c:h val="0.404547895541834"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Match</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> step time vs Read file Size(Whole HG 18)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>HG40i</c:v>
-          </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$28:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$28:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>44824.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21071.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12359.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9670.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>HG10i</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$34:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$34:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>14375.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8202.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5168.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4276.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="475291288"/>
-        <c:axId val="475296888"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="475291288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on Read files</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475296888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="475296888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Match</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> step </a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>Time in sec</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475291288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.81183932346723"/>
-          <c:y val="0.133439937881417"/>
-          <c:w val="0.17534118186683"/>
-          <c:h val="0.404547895541834"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Match</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> step time vs Read file Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>HG-CHR21-40i</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$3:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$3:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>27398.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13816.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6963.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5032.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>HG-CHR21-10i</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$8:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$8:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6433.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3209.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1615.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1186.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>HG40i</c:v>
-          </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$28:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$28:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>44824.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21071.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12359.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9670.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>HG10i</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$34:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$34:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>14375.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8202.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5168.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4276.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Bglumae10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$21:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.586</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.782</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$21:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>419.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>805.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1152.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1502.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2406.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3389.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Bglumae40</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$14:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.586</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.782</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$14:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1596.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2978.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4387.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5774.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7663.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15001.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="475350600"/>
-        <c:axId val="475356248"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="475350600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on Read files</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475356248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="475356248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Match</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> step </a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>Time in sec</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475350600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.81183932346723"/>
-          <c:y val="0.133439937881417"/>
-          <c:w val="0.17534118186683"/>
-          <c:h val="0.404547895541834"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3140,11 +1757,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475434200"/>
-        <c:axId val="388282360"/>
+        <c:axId val="439239768"/>
+        <c:axId val="438445320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475434200"/>
+        <c:axId val="439239768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,12 +1789,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="388282360"/>
+        <c:crossAx val="438445320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388282360"/>
+        <c:axId val="438445320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,7 +1827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475434200"/>
+        <c:crossAx val="439239768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3247,7 +1864,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3557,11 +2174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475611240"/>
-        <c:axId val="475616856"/>
+        <c:axId val="439100952"/>
+        <c:axId val="393055016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475611240"/>
+        <c:axId val="439100952"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3590,12 +2207,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475616856"/>
+        <c:crossAx val="393055016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475616856"/>
+        <c:axId val="393055016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,7 +2240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475611240"/>
+        <c:crossAx val="439100952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3654,7 +2271,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3777,11 +2394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475640808"/>
-        <c:axId val="475879512"/>
+        <c:axId val="438370536"/>
+        <c:axId val="438373128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475640808"/>
+        <c:axId val="438370536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3791,13 +2408,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475879512"/>
+        <c:crossAx val="438373128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475879512"/>
+        <c:axId val="438373128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,7 +2424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475640808"/>
+        <c:crossAx val="438370536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3825,137 +2442,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4372,376 +2858,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="39" thickBot="1">
+      <c r="A1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="50" thickTop="1" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="16" thickTop="1"/>
-    <row r="3" spans="1:9" ht="20" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
+    <row r="3" spans="1:10" ht="16" thickTop="1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1.7</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7">
+        <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="50" thickTop="1" thickBot="1">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1.7</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>97</v>
+      <c r="H4" s="7">
+        <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" thickTop="1">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>129</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
+        <v>1.7</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>129</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6">
+        <v>1.7</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
         <v>8</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1037</v>
+      <c r="H6" s="7">
+        <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1.7</v>
+      </c>
+      <c r="D9">
+        <v>800</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5136</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="50" thickTop="1" thickBot="1">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1.7</v>
+      </c>
+      <c r="D10">
+        <v>800</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>95</v>
+      <c r="H10" s="7">
+        <v>3022</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" thickTop="1">
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1.7</v>
+      </c>
+      <c r="D11">
+        <v>800</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>129</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>128</v>
-      </c>
-      <c r="G12">
-        <v>29</v>
-      </c>
-      <c r="H12">
-        <v>8135</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
+        <v>1.7</v>
+      </c>
+      <c r="D12">
+        <v>800</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3039</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>129</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13">
+    <row r="14" spans="1:10" ht="20" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" thickTop="1" thickBot="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="16" thickTop="1">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1.7</v>
+      </c>
+      <c r="D16">
+        <v>800</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
         <v>8</v>
       </c>
-      <c r="F13" s="7">
-        <f>32*8</f>
-        <v>256</v>
-      </c>
-      <c r="G13">
-        <v>32</v>
-      </c>
-      <c r="H13">
-        <v>11513</v>
-      </c>
-      <c r="I13">
+      <c r="G16" s="7">
         <v>8</v>
       </c>
+      <c r="H16" s="7">
+        <v>5136</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="20" thickBot="1">
-      <c r="A16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1.7</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
+      <c r="G17" s="7">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="50" thickTop="1" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1.7</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="F18" s="7">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7">
+        <v>8</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16" thickTop="1">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>64</v>
-      </c>
-      <c r="G18">
-        <v>29</v>
-      </c>
-      <c r="H18">
-        <v>2087.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="7">
-        <v>40</v>
-      </c>
-      <c r="C19" s="7">
-        <v>129</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19">
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1.7</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
         <v>8</v>
       </c>
-      <c r="F19" s="7">
-        <f>32*8</f>
-        <v>256</v>
-      </c>
       <c r="G19" s="7">
-        <v>32</v>
-      </c>
-      <c r="H19">
-        <f>33*60</f>
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20" thickBot="1">
-      <c r="A23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="50" thickTop="1" thickBot="1">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" thickTop="1">
-      <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>129</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>64</v>
-      </c>
-      <c r="G25">
-        <v>29</v>
-      </c>
-      <c r="H25">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="7">
-        <v>40</v>
-      </c>
-      <c r="C26" s="7">
-        <v>129</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26">
         <v>8</v>
       </c>
-      <c r="F26" s="7">
-        <f>32*8</f>
-        <v>256</v>
-      </c>
-      <c r="G26" s="7">
-        <v>32</v>
-      </c>
-      <c r="H26" s="7">
-        <v>240</v>
-      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4752,971 +3260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="47" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="66" thickTop="1" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickTop="1">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>1.9</v>
-      </c>
-      <c r="D3">
-        <v>2.4</v>
-      </c>
-      <c r="E3">
-        <v>27398</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="7">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>1.9</v>
-      </c>
-      <c r="D4">
-        <v>1.2</v>
-      </c>
-      <c r="E4">
-        <v>13816</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>1.9</v>
-      </c>
-      <c r="D5">
-        <v>0.6</v>
-      </c>
-      <c r="E5">
-        <v>6963</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>1.9</v>
-      </c>
-      <c r="D6">
-        <v>0.435</v>
-      </c>
-      <c r="E6">
-        <v>5032</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1.7</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="E8" s="13">
-        <v>6433</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1.7</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="E9" s="13">
-        <v>3209</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" s="7">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1.7</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1615</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="7">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1.7</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1186</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="7">
-        <v>4</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>0.435</v>
-      </c>
-      <c r="D14">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="E14">
-        <v>1596</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>0.435</v>
-      </c>
-      <c r="D15">
-        <v>0.39</v>
-      </c>
-      <c r="E15">
-        <v>2978</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>0.435</v>
-      </c>
-      <c r="D16">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="E16">
-        <v>4387</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>12</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>0.435</v>
-      </c>
-      <c r="D17">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="E17">
-        <v>5774</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17">
-        <v>12</v>
-      </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>0.435</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f>(7718+7608)/2</f>
-        <v>7663</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>0.435</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>15001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <v>12</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>0.435</v>
-      </c>
-      <c r="D21">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="E21">
-        <v>419</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21">
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>0.435</v>
-      </c>
-      <c r="D22">
-        <v>0.39</v>
-      </c>
-      <c r="E22">
-        <v>805</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>0.435</v>
-      </c>
-      <c r="D23">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="E23">
-        <v>1152</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23">
-        <v>12</v>
-      </c>
-      <c r="H23">
-        <v>12</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="7">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>0.435</v>
-      </c>
-      <c r="D24">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="E24">
-        <v>1502</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="W24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="7">
-        <v>10</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2406</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="7">
-        <v>12</v>
-      </c>
-      <c r="H25" s="7">
-        <v>12</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="W25" t="s">
-        <v>106</v>
-      </c>
-      <c r="X25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="7">
-        <v>10</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7">
-        <v>3389</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="7">
-        <v>12</v>
-      </c>
-      <c r="H26" s="7">
-        <v>12</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
-        <v>103</v>
-      </c>
-      <c r="W26">
-        <v>2672.6</v>
-      </c>
-      <c r="X26">
-        <v>11371</v>
-      </c>
-      <c r="Y26">
-        <f>+X26/W26</f>
-        <v>4.2546583850931681</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="15"/>
-      <c r="V27" t="s">
-        <v>104</v>
-      </c>
-      <c r="W27">
-        <v>5129</v>
-      </c>
-      <c r="X27">
-        <v>17912</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" ref="Y27:Y28" si="0">+X27/W27</f>
-        <v>3.4922986937024763</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>129</v>
-      </c>
-      <c r="D28">
-        <v>2.4</v>
-      </c>
-      <c r="E28">
-        <v>44824</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="7">
-        <v>12</v>
-      </c>
-      <c r="H28" s="7">
-        <v>12</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-      <c r="V28" t="s">
-        <v>105</v>
-      </c>
-      <c r="W28">
-        <v>1674.5</v>
-      </c>
-      <c r="X28">
-        <v>7462.8</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="0"/>
-        <v>4.4567333532397733</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>129</v>
-      </c>
-      <c r="D29">
-        <v>1.2</v>
-      </c>
-      <c r="E29">
-        <v>21071</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="7">
-        <v>12</v>
-      </c>
-      <c r="H29" s="7">
-        <v>12</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30">
-        <v>40</v>
-      </c>
-      <c r="C30">
-        <v>129</v>
-      </c>
-      <c r="D30">
-        <v>0.6</v>
-      </c>
-      <c r="E30">
-        <v>12359</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="7">
-        <v>12</v>
-      </c>
-      <c r="H30" s="7">
-        <v>12</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>129</v>
-      </c>
-      <c r="D31">
-        <v>0.435</v>
-      </c>
-      <c r="E31">
-        <v>9670</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="7">
-        <v>12</v>
-      </c>
-      <c r="H31" s="7">
-        <v>12</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="15"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="15"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>129</v>
-      </c>
-      <c r="D34">
-        <v>2.4</v>
-      </c>
-      <c r="E34">
-        <v>14375</v>
-      </c>
-      <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34">
-        <v>12</v>
-      </c>
-      <c r="H34" s="7">
-        <v>12</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>129</v>
-      </c>
-      <c r="D35">
-        <v>1.2</v>
-      </c>
-      <c r="E35">
-        <v>8202</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35">
-        <v>12</v>
-      </c>
-      <c r="H35" s="7">
-        <v>12</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>129</v>
-      </c>
-      <c r="D36">
-        <v>0.6</v>
-      </c>
-      <c r="E36">
-        <v>5168</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36">
-        <v>12</v>
-      </c>
-      <c r="H36" s="7">
-        <v>12</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>129</v>
-      </c>
-      <c r="D37">
-        <v>0.435</v>
-      </c>
-      <c r="E37">
-        <v>4276</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37">
-        <v>12</v>
-      </c>
-      <c r="H37" s="7">
-        <v>12</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="G38" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD215"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:K37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5755,7 +3302,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" thickTop="1" thickBot="1">
@@ -6318,7 +3865,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -6347,7 +3894,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -6376,7 +3923,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -6405,7 +3952,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -7214,7 +4761,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -7238,7 +4785,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -7262,7 +4809,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -7286,7 +4833,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -7310,7 +4857,7 @@
     </row>
     <row r="65" spans="1:16384">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -38029,7 +35576,7 @@
     </row>
     <row r="66" spans="1:16384">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -70493,6 +68040,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/results/Cloud_Results.xlsx
+++ b/papers/data-intensive-bio/results/Cloud_Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="211"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="33480" windowHeight="18860" tabRatio="211"/>
   </bookViews>
   <sheets>
     <sheet name="clod_res" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8537" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8545" uniqueCount="97">
   <si>
     <t>Type</t>
   </si>
@@ -288,6 +288,30 @@
   <si>
     <t>VM =C1.Xlarge</t>
   </si>
+  <si>
+    <t>1062(2 threads)</t>
+  </si>
+  <si>
+    <t>Number of tasks</t>
+  </si>
+  <si>
+    <t>Number of threads per task</t>
+  </si>
+  <si>
+    <t>old results</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>total threads</t>
+  </si>
+  <si>
+    <t>new results</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
@@ -417,7 +441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="454">
+  <cellStyleXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -872,8 +896,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -910,8 +954,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="454">
+  <cellStyles count="474">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1137,6 +1186,16 @@
     <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1364,6 +1423,16 @@
     <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1373,6 +1442,430 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Threads vs TTC(sec)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>new_vm_100MB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>clod_res!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>clod_res!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>428.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>old_vm_100MB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>clod_res!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>clod_res!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>449.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>439.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>452.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="537765688"/>
+        <c:axId val="536981784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="537765688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="536981784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="536981784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="537765688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TTC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs size of Number of read</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> files(800MB reads)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clod_res!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>clod_res!$I$16:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>clod_res!$H$16:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>569.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>921.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594481000"/>
+        <c:axId val="594438968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594481000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="594438968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594438968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="594481000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1757,11 +2250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439239768"/>
-        <c:axId val="438445320"/>
+        <c:axId val="518346312"/>
+        <c:axId val="518352024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439239768"/>
+        <c:axId val="518346312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,12 +2282,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438445320"/>
+        <c:crossAx val="518352024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438445320"/>
+        <c:axId val="518352024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +2320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439239768"/>
+        <c:crossAx val="518346312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1864,7 +2357,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2174,11 +2667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439100952"/>
-        <c:axId val="393055016"/>
+        <c:axId val="518335720"/>
+        <c:axId val="518323272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439100952"/>
+        <c:axId val="518335720"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2207,12 +2700,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393055016"/>
+        <c:crossAx val="518323272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393055016"/>
+        <c:axId val="518323272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439100952"/>
+        <c:crossAx val="518335720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2271,7 +2764,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2394,11 +2887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438370536"/>
-        <c:axId val="438373128"/>
+        <c:axId val="518549592"/>
+        <c:axId val="518554024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438370536"/>
+        <c:axId val="518549592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,13 +2901,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438373128"/>
+        <c:crossAx val="518554024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438373128"/>
+        <c:axId val="518554024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,7 +2917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438370536"/>
+        <c:crossAx val="518549592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2442,6 +2935,71 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2858,19 +3416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H15" activeCellId="1" sqref="G15:G19 H15:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39" thickBot="1">
+    <row r="1" spans="1:16" ht="39" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>86</v>
       </c>
@@ -2885,7 +3444,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="50" thickTop="1" thickBot="1">
+    <row r="2" spans="1:16" ht="50" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2904,14 +3463,20 @@
       <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="G2" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickTop="1">
+    <row r="3" spans="1:16" ht="16" thickTop="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2931,13 +3496,19 @@
         <v>8</v>
       </c>
       <c r="G3" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H3" s="7">
-        <v>452</v>
+        <v>449</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2957,13 +3528,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2983,13 +3560,19 @@
         <v>8</v>
       </c>
       <c r="G5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3009,13 +3592,25 @@
         <v>8</v>
       </c>
       <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>452</v>
+      </c>
+      <c r="I6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
-        <v>449</v>
+      <c r="K6" s="7">
+        <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="7" spans="1:16">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3035,13 +3630,16 @@
         <v>8</v>
       </c>
       <c r="G9" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
-        <v>5136</v>
+        <v>3039</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3061,13 +3659,19 @@
         <v>8</v>
       </c>
       <c r="G10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="7">
-        <v>3022</v>
+        <v>3049</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3087,13 +3691,16 @@
         <v>8</v>
       </c>
       <c r="G11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="7">
-        <v>3049</v>
+        <v>3022</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3113,13 +3720,16 @@
         <v>8</v>
       </c>
       <c r="G12" s="7">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5136</v>
+      </c>
+      <c r="I12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="7">
-        <v>3039</v>
-      </c>
     </row>
-    <row r="14" spans="1:10" ht="20" thickBot="1">
+    <row r="14" spans="1:16" ht="20" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
@@ -3129,7 +3739,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="18" thickTop="1" thickBot="1">
+    <row r="15" spans="1:16" ht="18" thickTop="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
@@ -3139,9 +3749,20 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickTop="1">
+    <row r="16" spans="1:16" ht="16" thickTop="1">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3152,7 +3773,7 @@
         <v>1.7</v>
       </c>
       <c r="D16">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
@@ -3161,15 +3782,19 @@
         <v>8</v>
       </c>
       <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>366</v>
+      </c>
+      <c r="I16" s="7">
         <v>8</v>
       </c>
-      <c r="H16" s="7">
-        <v>5136</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3805,7 @@
         <v>1.7</v>
       </c>
       <c r="D17">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
@@ -3189,13 +3814,19 @@
         <v>8</v>
       </c>
       <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>569</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4</v>
+      </c>
+      <c r="J17" s="7">
         <v>8</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3206,7 +3837,7 @@
         <v>1.7</v>
       </c>
       <c r="D18">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -3215,13 +3846,28 @@
         <v>8</v>
       </c>
       <c r="G18" s="7">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7">
+        <v>921</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7">
         <v>8</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="M18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="18">
+        <v>921912</v>
+      </c>
+      <c r="P18">
+        <v>3462</v>
+      </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3232,7 +3878,7 @@
         <v>1.7</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -3243,13 +3889,29 @@
       <c r="G19" s="7">
         <v>8</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="H19" s="7">
+        <v>2001</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>5136</v>
+      </c>
+      <c r="P19" s="7">
+        <v>5136</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B16:P19">
+    <sortCondition ref="G16:G19"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/papers/data-intensive-bio/results/Cloud_Results.xlsx
+++ b/papers/data-intensive-bio/results/Cloud_Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="33480" windowHeight="18860" tabRatio="211"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="211"/>
   </bookViews>
   <sheets>
     <sheet name="clod_res" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8545" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8544" uniqueCount="96">
   <si>
     <t>Type</t>
   </si>
@@ -309,9 +309,6 @@
   <si>
     <t>new results</t>
   </si>
-  <si>
-    <t>s</t>
-  </si>
 </sst>
 </file>
 
@@ -441,7 +438,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="474">
+  <cellStyleXfs count="476">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -916,6 +913,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -960,7 +959,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="474">
+  <cellStyles count="476">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1196,6 +1195,7 @@
     <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1433,6 +1433,7 @@
     <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1588,11 +1589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="537765688"/>
-        <c:axId val="536981784"/>
+        <c:axId val="432293992"/>
+        <c:axId val="432300840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="537765688"/>
+        <c:axId val="432293992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,12 +1622,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536981784"/>
+        <c:crossAx val="432300840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536981784"/>
+        <c:axId val="432300840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +1657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537765688"/>
+        <c:crossAx val="432293992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1794,11 +1795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="594481000"/>
-        <c:axId val="594438968"/>
+        <c:axId val="2947976"/>
+        <c:axId val="2950936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="594481000"/>
+        <c:axId val="2947976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,12 +1809,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="594438968"/>
+        <c:crossAx val="2950936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="594438968"/>
+        <c:axId val="2950936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="594481000"/>
+        <c:crossAx val="2947976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2250,11 +2251,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="518346312"/>
-        <c:axId val="518352024"/>
+        <c:axId val="432385384"/>
+        <c:axId val="432391128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="518346312"/>
+        <c:axId val="432385384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,12 +2283,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518352024"/>
+        <c:crossAx val="432391128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518352024"/>
+        <c:axId val="432391128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518346312"/>
+        <c:crossAx val="432385384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2667,11 +2668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="518335720"/>
-        <c:axId val="518323272"/>
+        <c:axId val="432430264"/>
+        <c:axId val="432435864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="518335720"/>
+        <c:axId val="432430264"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2700,12 +2701,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518323272"/>
+        <c:crossAx val="432435864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518323272"/>
+        <c:axId val="432435864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +2734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518335720"/>
+        <c:crossAx val="432430264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2887,11 +2888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="518549592"/>
-        <c:axId val="518554024"/>
+        <c:axId val="432459864"/>
+        <c:axId val="432464344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="518549592"/>
+        <c:axId val="432459864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,13 +2902,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518554024"/>
+        <c:crossAx val="432464344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518554024"/>
+        <c:axId val="432464344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,7 +2918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518549592"/>
+        <c:crossAx val="432459864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3418,8 +3419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" activeCellId="1" sqref="G15:G19 H15:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3638,6 +3639,9 @@
       <c r="I9" s="7">
         <v>1</v>
       </c>
+      <c r="K9" s="7">
+        <v>3166</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
@@ -3667,8 +3671,8 @@
       <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
-        <v>96</v>
+      <c r="K10" s="7">
+        <v>2367</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3699,6 +3703,9 @@
       <c r="I11" s="7">
         <v>1</v>
       </c>
+      <c r="K11" s="7">
+        <v>2139</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -3727,6 +3734,9 @@
       </c>
       <c r="I12" s="7">
         <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1983</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" thickBot="1">
